--- a/Fundamentals of statsitics (Bhumika Mam)/Block -II Central Tendency/Fundamentals Of Statistics  Block -II Central Tendency.xlsx
+++ b/Fundamentals of statsitics (Bhumika Mam)/Block -II Central Tendency/Fundamentals Of Statistics  Block -II Central Tendency.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achyut Sharma\Documents\Data Sem 5\Fundamentals of statsitics (Bhumika Mam)\Block -II Central Tendency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC8B85-0152-4A6E-8B6A-943163DFC5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93443A75-FC10-4772-978C-A382A89BC869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5 July 23" sheetId="1" r:id="rId1"/>
+    <sheet name="7 July 23 Question 1 Fri" sheetId="2" r:id="rId2"/>
+    <sheet name="7 July 23 (Question 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="7 July 23 (Question 3)" sheetId="4" r:id="rId4"/>
+    <sheet name="7 July 23(Q.4)" sheetId="5" r:id="rId5"/>
+    <sheet name="10 July 23(class Practice)" sheetId="6" r:id="rId6"/>
+    <sheet name="11 July 23(Class Practice)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
   <si>
     <t>x</t>
   </si>
@@ -67,16 +73,345 @@
   </si>
   <si>
     <t>Mean(Sigma fx/Sigma f)</t>
+  </si>
+  <si>
+    <t>observation</t>
+  </si>
+  <si>
+    <t>Find out the mean</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>MEAN OR AVERAGE OF OBS.</t>
+  </si>
+  <si>
+    <t>Q.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN DISCRETE  DATA IS GIVEN </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>(Obs. +Frequency)</t>
+  </si>
+  <si>
+    <t>(-x) =SigmaFX/SigmaF</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>FX(Used Product Formula)</t>
+  </si>
+  <si>
+    <t>Total Of (Sigma F )And Sigma(FX)</t>
+  </si>
+  <si>
+    <t>Arithmetic MEAN</t>
+  </si>
+  <si>
+    <t>Q.2</t>
+  </si>
+  <si>
+    <t>(I)</t>
+  </si>
+  <si>
+    <t>(II)</t>
+  </si>
+  <si>
+    <t>A.M</t>
+  </si>
+  <si>
+    <t>Income between(in Rs.)</t>
+  </si>
+  <si>
+    <t>100--200</t>
+  </si>
+  <si>
+    <t>200--300</t>
+  </si>
+  <si>
+    <t>300--400</t>
+  </si>
+  <si>
+    <t>400--500</t>
+  </si>
+  <si>
+    <t>500--600</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Q.3</t>
+  </si>
+  <si>
+    <t>(ii)</t>
+  </si>
+  <si>
+    <t>(i)</t>
+  </si>
+  <si>
+    <t>Marks Obtained.</t>
+  </si>
+  <si>
+    <t>10--20</t>
+  </si>
+  <si>
+    <t>20--30</t>
+  </si>
+  <si>
+    <t>30--40</t>
+  </si>
+  <si>
+    <t>40--50</t>
+  </si>
+  <si>
+    <t>50--60</t>
+  </si>
+  <si>
+    <t>A.M.</t>
+  </si>
+  <si>
+    <t>No.of Student  (F)</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Q.4</t>
+  </si>
+  <si>
+    <t>Find mean and median</t>
+  </si>
+  <si>
+    <t>Obs.</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>Find mean median of first 10 natural number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q.1</t>
+  </si>
+  <si>
+    <t>Find mean median of first 10 whole number</t>
+  </si>
+  <si>
+    <t>Q.f</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>(N+1)/2 th obs</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>EX1</t>
+  </si>
+  <si>
+    <t>Continous series</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>0--5</t>
+  </si>
+  <si>
+    <t>5--10</t>
+  </si>
+  <si>
+    <t>10--15</t>
+  </si>
+  <si>
+    <t>15--20</t>
+  </si>
+  <si>
+    <t>20--25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M th class </t>
+  </si>
+  <si>
+    <t>M th class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15--20</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>class interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M CLASS (N/2)TH CLASS</t>
+  </si>
+  <si>
+    <t>l+((N/2)-CF/F)*C</t>
+  </si>
+  <si>
+    <t>M class</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Class </t>
+  </si>
+  <si>
+    <t>(N+2)TH CLASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is </t>
+  </si>
+  <si>
+    <t>TH CLASS</t>
+  </si>
+  <si>
+    <t>M class is 15--20</t>
+  </si>
+  <si>
+    <t>M is equal to</t>
+  </si>
+  <si>
+    <t>L+[[[N/2]-CF/F]*C]</t>
+  </si>
+  <si>
+    <t>M Class is equal to</t>
+  </si>
+  <si>
+    <t>25--30</t>
+  </si>
+  <si>
+    <t>30--35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N is equal to 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20 th obs.</t>
+  </si>
+  <si>
+    <t>M class is equal to 20--25</t>
+  </si>
+  <si>
+    <t>L+((N/2)-CF/F)*C)</t>
+  </si>
+  <si>
+    <t>M class is equal to</t>
+  </si>
+  <si>
+    <t>2--4</t>
+  </si>
+  <si>
+    <t>4--6</t>
+  </si>
+  <si>
+    <t>6--8</t>
+  </si>
+  <si>
+    <t>8--10</t>
+  </si>
+  <si>
+    <t>10--12</t>
+  </si>
+  <si>
+    <t>N is equal to 34</t>
+  </si>
+  <si>
+    <t>M Is equal to</t>
+  </si>
+  <si>
+    <t>,M clas is equal to 6--8</t>
+  </si>
+  <si>
+    <t>Mode  is highest f or highest data.</t>
+  </si>
+  <si>
+    <t>Here 42 and 30 comes 4 times so as 42 is highest than 30 so our mode is equal to 42</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>Binomodel data is a data from which we can't able to find mode</t>
+  </si>
+  <si>
+    <t>Formula to find mode in binomodel data</t>
+  </si>
+  <si>
+    <t>Z is equal to 3M-2 X BAR)</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Follow this model or rule for exam this is accurate</t>
+  </si>
+  <si>
+    <t>Second model or rule is that highest frequency is the mode as here 65 in above data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,11 +437,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,6 +462,230 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="546175" cy="315792"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F31FAD-41E4-B70E-0727-8EBB4931FE12}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6629400" y="2053590"/>
+              <a:ext cx="546175" cy="315792"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="en-IN" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐹𝑥</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐹</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-IN" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F31FAD-41E4-B70E-0727-8EBB4931FE12}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6629400" y="2053590"/>
+              <a:ext cx="546175" cy="315792"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=𝛴𝐹𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛴𝐹</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -635,4 +1199,1962 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAE7C33-C6F0-4829-A406-D0B7007B251C}">
+  <dimension ref="B2:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(D6:D15)</f>
+        <v>14.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C144B16E-450E-4ED5-942F-C8EC502F704D}">
+  <dimension ref="B1:E36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <f>PRODUCT(D6,C6)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>87</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E15" si="0">PRODUCT(D7,C7)</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>84</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>89</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>95</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2">
+        <f>SUM(D6:D15)</f>
+        <v>662</v>
+      </c>
+      <c r="E16" s="2">
+        <f>SUM(E6:E15)</f>
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <f>(E16/D16)</f>
+        <v>5.6540785498489425</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <f>PRODUCT(D26,C26)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>85</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:E34" si="1">PRODUCT(D27,C27)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>59</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>36</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>65</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>95</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f>SUM(D26:D34)</f>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <f>(E34/D35)</f>
+        <v>1.7134268537074149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC96B2-B886-4A20-A4E9-BEFD12C94741}">
+  <dimension ref="B1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f>(100+200)/2</f>
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <f>PRODUCT(F4,E4)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <f>(300+200)/2</f>
+        <v>250</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G8" si="0">PRODUCT(F5,E5)</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>350</v>
+      </c>
+      <c r="G6">
+        <v>14350</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>450</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>22950</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>550</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2">
+        <f>SUM(E4:E8)</f>
+        <v>121</v>
+      </c>
+      <c r="G9" s="2">
+        <f>SUM(G4:G8)</f>
+        <v>47950</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2">
+        <f>(G9/E9)</f>
+        <v>396.28099173553721</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <f>PRODUCT(E18,D18)</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F22" si="1">PRODUCT(E19,D19)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>58</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>74</v>
+      </c>
+      <c r="E21">
+        <v>45</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="2">
+        <f>SUM(D18:D22)</f>
+        <v>185</v>
+      </c>
+      <c r="F23" s="2">
+        <f>SUM(F18:F22)</f>
+        <v>6855</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2">
+        <f>F23/D23</f>
+        <v>37.054054054054056</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C562E4B3-F1DD-4D54-9228-88721399A648}">
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <f>MEDIAN(F4:F10)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <f>AVERAGE(B19:B28)</f>
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <f>MEDIAN(B19:B28)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <f>AVERAGE(B40:B49)</f>
+        <v>5.5</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="0">AVERAGE(D40:D49)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <f>MEDIAN(B40:B49)</f>
+        <v>5.5</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52" si="1">MEDIAN(D40:D49)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66">
+        <f>AVERAGE(B56:B65)</f>
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67">
+        <f>MEDIAN(B56:B65)</f>
+        <v>61.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D901FB-0AAD-4097-89E1-0DE7E4DFC5BF}">
+  <dimension ref="B3:E54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>E4+D5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E8" si="0">E5+D6</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <f>(E8+1)/2</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <f>D20+C21</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D24" si="1">D21+C22</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27">
+        <f>D24/2</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <f>15+13-11/3*5</f>
+        <v>9.6666666666666679</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <f>E38+D39</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:E42" si="2">E39+D40</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f>E42/2</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E725250-D1B6-4147-9F28-BA6713235ED9}">
+  <dimension ref="B3:N130"/>
+  <sheetViews>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4">
+        <f>E8/2</f>
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <f>E4+D5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E8" si="0">E5+D6</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f>(E8/2)-11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f>H13/D7</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f>H14*5</f>
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16">
+        <f>H15+15</f>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <f>D28</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <f>E28+D29</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E32" si="1">E29+D30</f>
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <f>(E32/2)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <f>J36-13</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <f>J37/7</f>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <f>J38*5</f>
+        <v>4.6428571428571432</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40">
+        <f>J39+20</f>
+        <v>24.642857142857142</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <f>D64</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <f>E64+D65</f>
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>103</v>
+      </c>
+      <c r="I65">
+        <f>E68/2</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E68" si="2">E65+D66</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="I68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>104</v>
+      </c>
+      <c r="J71">
+        <f>(E68+1)/2</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J72">
+        <f>J71-15</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+      <c r="K88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K89">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>20</v>
+      </c>
+      <c r="K90">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>24</v>
+      </c>
+      <c r="K91">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>42</v>
+      </c>
+      <c r="K92">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>41</v>
+      </c>
+      <c r="K93">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>34</v>
+      </c>
+      <c r="K94">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>42</v>
+      </c>
+      <c r="K95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>30</v>
+      </c>
+      <c r="K96">
+        <v>41</v>
+      </c>
+      <c r="M96" t="s">
+        <v>108</v>
+      </c>
+      <c r="N96">
+        <f>MODE(K88:K100)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>30</v>
+      </c>
+      <c r="K97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>41</v>
+      </c>
+      <c r="K98">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>30</v>
+      </c>
+      <c r="K99">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>42</v>
+      </c>
+      <c r="K100">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <f>MODE(B90:B101)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F118" t="s">
+        <v>109</v>
+      </c>
+      <c r="G118" t="e">
+        <f>MODE(E110:E116)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D122" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" t="s">
+        <v>47</v>
+      </c>
+      <c r="H122">
+        <f>MEDIAN(E110:E116)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>113</v>
+      </c>
+      <c r="H123">
+        <f>AVERAGE(E110:E116)</f>
+        <v>44.285714285714285</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>109</v>
+      </c>
+      <c r="H124">
+        <f>(3*H122-2*H123)</f>
+        <v>67.428571428571431</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Fundamentals of statsitics (Bhumika Mam)/Block -II Central Tendency/Fundamentals Of Statistics  Block -II Central Tendency.xlsx
+++ b/Fundamentals of statsitics (Bhumika Mam)/Block -II Central Tendency/Fundamentals Of Statistics  Block -II Central Tendency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achyut Sharma\Documents\Data Sem 5\Fundamentals of statsitics (Bhumika Mam)\Block -II Central Tendency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93443A75-FC10-4772-978C-A382A89BC869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E2673D-5855-458C-9F9E-734B9E8F2173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5 July 23" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="7 July 23(Q.4)" sheetId="5" r:id="rId5"/>
     <sheet name="10 July 23(class Practice)" sheetId="6" r:id="rId6"/>
     <sheet name="11 July 23(Class Practice)" sheetId="7" r:id="rId7"/>
+    <sheet name="12 July (C.P)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="135">
   <si>
     <t>x</t>
   </si>
@@ -388,13 +389,216 @@
   </si>
   <si>
     <t>Second model or rule is that highest frequency is the mode as here 65 in above data.</t>
+  </si>
+  <si>
+    <t>find the mode in continous series</t>
+  </si>
+  <si>
+    <t>hightest frequency is 74 so 40--50 is z class</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">z is equal to </t>
+  </si>
+  <si>
+    <r>
+      <t>L+((F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*C)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mode (Z) is equal to</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>as here f2 is not available so this binomial data we will use  z equal to 3M-2X(Bar) formula.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma(fx) </t>
+  </si>
+  <si>
+    <t>sigma(x)</t>
+  </si>
+  <si>
+    <t>M Class</t>
+  </si>
+  <si>
+    <t>(N/2)TH Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M CLASS </t>
+  </si>
+  <si>
+    <t>400-500</t>
+  </si>
+  <si>
+    <t>L+(((N/2)-CF/F)*C)</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>mean Or X(Bar)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +616,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1893,7 +2105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C562E4B3-F1DD-4D54-9228-88721399A648}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -2574,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E725250-D1B6-4147-9F28-BA6713235ED9}">
   <dimension ref="B3:N130"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2806,7 +3018,7 @@
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.3">
       <c r="J36">
-        <f>(E32/2)</f>
+        <f>E32/2</f>
         <v>19.5</v>
       </c>
     </row>
@@ -2904,7 +3116,7 @@
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>102</v>
       </c>
       <c r="D68">
@@ -3151,6 +3363,347 @@
     <row r="130" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A086EF-2B12-46F7-914E-304174CC141F}">
+  <dimension ref="C3:M52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f>(D12-D11)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f>(2*D12)-D11-D13</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f>H19/H20</f>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f>H21*10</f>
+        <v>2.1052631578947367</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="2">
+        <f>40+H22</f>
+        <v>42.10526315789474</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>150</v>
+      </c>
+      <c r="G36">
+        <f>F36*E36</f>
+        <v>2250</v>
+      </c>
+      <c r="H36">
+        <f>15</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37">
+        <v>33</v>
+      </c>
+      <c r="F37">
+        <v>250</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G40" si="0">F37*E37</f>
+        <v>8250</v>
+      </c>
+      <c r="H37">
+        <f>H36+E37</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38">
+        <v>63</v>
+      </c>
+      <c r="F38">
+        <v>350</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>22050</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38:H40" si="1">H37+E38</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="2">
+        <v>85</v>
+      </c>
+      <c r="F39" s="2">
+        <v>450</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>38250</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L39" s="2">
+        <f>AVERAGE(H41/E42)</f>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="4">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>550</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="G41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="2">
+        <f>SUM(G36:G40)</f>
+        <v>125800</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="2">
+        <f>SUM(E36:E40)</f>
+        <v>296</v>
+      </c>
+      <c r="K42" t="s">
+        <v>128</v>
+      </c>
+      <c r="L42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <f>H40/2</f>
+        <v>148</v>
+      </c>
+      <c r="M43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>130</v>
+      </c>
+      <c r="L44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>61</v>
+      </c>
+      <c r="L47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <f>L43-111</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <f>L48/85</f>
+        <v>0.43529411764705883</v>
+      </c>
+    </row>
+    <row r="50" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <f>L49*100</f>
+        <v>43.529411764705884</v>
+      </c>
+    </row>
+    <row r="51" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L51" s="2">
+        <f>L50+400</f>
+        <v>443.52941176470586</v>
+      </c>
+    </row>
+    <row r="52" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L52" s="2">
+        <f>(3*L51)-(2*L39)</f>
+        <v>480.58823529411757</v>
       </c>
     </row>
   </sheetData>

--- a/Fundamentals of statsitics (Bhumika Mam)/Block -II Central Tendency/Fundamentals Of Statistics  Block -II Central Tendency.xlsx
+++ b/Fundamentals of statsitics (Bhumika Mam)/Block -II Central Tendency/Fundamentals Of Statistics  Block -II Central Tendency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achyut Sharma\Documents\Data Sem 5\Fundamentals of statsitics (Bhumika Mam)\Block -II Central Tendency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E2673D-5855-458C-9F9E-734B9E8F2173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D450A-FD23-46EE-BA56-4EBC3433B540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5 July 23" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="10 July 23(class Practice)" sheetId="6" r:id="rId6"/>
     <sheet name="11 July 23(Class Practice)" sheetId="7" r:id="rId7"/>
     <sheet name="12 July (C.P)" sheetId="8" r:id="rId8"/>
+    <sheet name="15 July Case Study " sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="158">
   <si>
     <t>x</t>
   </si>
@@ -593,12 +594,81 @@
   <si>
     <t>mean Or X(Bar)</t>
   </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>0--10</t>
+  </si>
+  <si>
+    <t>60--70</t>
+  </si>
+  <si>
+    <t>70--80</t>
+  </si>
+  <si>
+    <t>80--90</t>
+  </si>
+  <si>
+    <t>90--100</t>
+  </si>
+  <si>
+    <t>bin(highest value in class)</t>
+  </si>
+  <si>
+    <t>MARKS</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Cumulative %</t>
+  </si>
+  <si>
+    <t>X(Mid Value)</t>
+  </si>
+  <si>
+    <t>Sigma(Fx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Median Class</t>
+  </si>
+  <si>
+    <t>(N/2)TH CLASS</t>
+  </si>
+  <si>
+    <t>Median class is 40--50</t>
+  </si>
+  <si>
+    <t>Bcoz 30 cond. Id fulfilled with f of 40--50 class</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mode class </t>
+  </si>
+  <si>
+    <t>coz 9 is highest f in class 30--40 so mode class is 30--40</t>
+  </si>
+  <si>
+    <t>z equal to L+F1-F0/2F--F0-F2*C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +698,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -637,7 +715,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -645,11 +723,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -658,7 +756,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,6 +985,256 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛴𝐹</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="584071" cy="326115"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539D0207-B1F9-CE95-25CA-4E76887DACE5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6629400" y="2975610"/>
+              <a:ext cx="584071" cy="326115"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="en-IN" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:grow m:val="on"/>
+                            <m:subHide m:val="on"/>
+                            <m:supHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub/>
+                          <m:sup/>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐹𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:nary>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛴</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐹</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-IN" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539D0207-B1F9-CE95-25CA-4E76887DACE5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6629400" y="2975610"/>
+              <a:ext cx="584071" cy="326115"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(∑128▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐹𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-IN" sz="1100" i="0">
@@ -1165,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1511,7 +1864,7 @@
   <dimension ref="B1:E36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1850,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC96B2-B886-4A20-A4E9-BEFD12C94741}">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2105,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C562E4B3-F1DD-4D54-9228-88721399A648}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2469,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D901FB-0AAD-4097-89E1-0DE7E4DFC5BF}">
   <dimension ref="B3:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2786,7 +3139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E725250-D1B6-4147-9F28-BA6713235ED9}">
   <dimension ref="B3:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
@@ -3375,7 +3728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A086EF-2B12-46F7-914E-304174CC141F}">
   <dimension ref="C3:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -3603,10 +3956,10 @@
       </c>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40">
         <v>100</v>
       </c>
       <c r="F40">
@@ -3710,4 +4063,840 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B3255-D6DF-4B8A-BBC8-EACF72DD4952}">
+  <dimension ref="B1:AF61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="K3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" t="s">
+        <v>148</v>
+      </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4">
+        <f>COUNT(B2:B61)</f>
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <f>0+10/2</f>
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <f>Q4*R4</f>
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5">
+        <f>MAX(B2:B61)</f>
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <f>(10+20)/2</f>
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T13" si="0">Q5*R5</f>
+        <v>105</v>
+      </c>
+      <c r="U5">
+        <f>(U4+Q5)</f>
+        <v>11</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6">
+        <f>MIN(B2:B61)</f>
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <f>(20+30)/2</f>
+        <v>25</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U13" si="1">(U5+Q6)</f>
+        <v>17</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <f>(30+40)/2</f>
+        <v>35</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7">
+        <v>6</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="P8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <f>(40+50)/2</f>
+        <v>45</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <f>(50+60)/2</f>
+        <v>55</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10">
+        <v>70</v>
+      </c>
+      <c r="K10">
+        <v>70</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <f>(60+70)/2</f>
+        <v>65</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <v>80</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="P11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <f>(70+80)/2</f>
+        <v>75</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12">
+        <v>90</v>
+      </c>
+      <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="P12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <f>(80+90)/2</f>
+        <v>85</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <f>(90+100)/2</f>
+        <v>95</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="S14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="T14" s="2">
+        <f>SUM(T4:T13)</f>
+        <v>2890</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>T14/Q15</f>
+        <v>48.166666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>42</v>
+      </c>
+      <c r="P18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>45</v>
+      </c>
+      <c r="M20">
+        <f>Q15/2</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>72</v>
+      </c>
+      <c r="K21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K4:K13">
+    <sortCondition ref="K4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>